--- a/Test.xlsx
+++ b/Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E26FBA0-431B-4F5A-9246-8F62D2F5E436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B38F595-B41E-4CD7-9328-0D789B658352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,7 +348,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -366,7 +366,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
